--- a/DataBase/DriverDB/DriverDB.xlsx
+++ b/DataBase/DriverDB/DriverDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AG_FW1\DataBase\DriverDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\SFW-master\SFW-master\DataBase\DriverDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="70">
   <si>
     <t>SeqNo</t>
   </si>
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1060,26 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DataBase/DriverDB/DriverDB.xlsx
+++ b/DataBase/DriverDB/DriverDB.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="70">
   <si>
     <t>SeqNo</t>
   </si>
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1080,26 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/DataBase/DriverDB/DriverDB.xlsx
+++ b/DataBase/DriverDB/DriverDB.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="71">
   <si>
     <t>SeqNo</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>openbw</t>
+  </si>
+  <si>
+    <t>TestCase_001</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +929,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +972,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -986,7 +989,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
